--- a/data/pca/factorExposure/factorExposure_2018-05-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01797516187123729</v>
+        <v>0.01917329529321342</v>
       </c>
       <c r="C2">
-        <v>-0.0363114381007024</v>
+        <v>-0.01660826076294732</v>
       </c>
       <c r="D2">
-        <v>-0.01844342477157458</v>
+        <v>0.02882346919868651</v>
       </c>
       <c r="E2">
-        <v>0.003960691444773135</v>
+        <v>0.01833397100196272</v>
       </c>
       <c r="F2">
-        <v>-0.1249248675052325</v>
+        <v>-0.004876321302847922</v>
       </c>
       <c r="G2">
-        <v>0.07556328496711766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.04724507819022832</v>
+      </c>
+      <c r="H2">
+        <v>0.04808298928502328</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08973715021575171</v>
+        <v>0.0768185831250697</v>
       </c>
       <c r="C3">
-        <v>-0.01615335935335477</v>
+        <v>0.01546746633510699</v>
       </c>
       <c r="D3">
-        <v>-0.08799030565942319</v>
+        <v>0.06792575939566591</v>
       </c>
       <c r="E3">
-        <v>0.07895860126292018</v>
+        <v>0.01007488655220856</v>
       </c>
       <c r="F3">
-        <v>-0.410114469474238</v>
+        <v>0.01748734344773366</v>
       </c>
       <c r="G3">
-        <v>0.2381053238789737</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1772930582310585</v>
+      </c>
+      <c r="H3">
+        <v>0.1535916631168873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.0458335047208756</v>
+        <v>0.04434865971019007</v>
       </c>
       <c r="C4">
-        <v>-0.003157585843804542</v>
+        <v>-0.001368758591336693</v>
       </c>
       <c r="D4">
-        <v>-0.006362331663901908</v>
+        <v>0.05960583815281218</v>
       </c>
       <c r="E4">
-        <v>-0.0540904282533646</v>
+        <v>-0.01729611460407344</v>
       </c>
       <c r="F4">
-        <v>-0.08412947109547479</v>
+        <v>-0.04468417758053991</v>
       </c>
       <c r="G4">
-        <v>0.04221029135071724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04125614987212683</v>
+      </c>
+      <c r="H4">
+        <v>0.05846597522152843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03548250167259504</v>
+        <v>0.0254013520451466</v>
       </c>
       <c r="C6">
-        <v>-0.01246565861751747</v>
+        <v>0.001751181007116031</v>
       </c>
       <c r="D6">
-        <v>-0.007906391530606112</v>
+        <v>0.06150721419006604</v>
       </c>
       <c r="E6">
-        <v>-0.02587542797006641</v>
+        <v>-0.003395705353316839</v>
       </c>
       <c r="F6">
-        <v>-0.01437241164225931</v>
+        <v>-0.03052406080226622</v>
       </c>
       <c r="G6">
-        <v>-0.01586984457316328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.0110217140924003</v>
+      </c>
+      <c r="H6">
+        <v>0.0625410043914712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01888498595847871</v>
+        <v>0.02003901267543146</v>
       </c>
       <c r="C7">
-        <v>-0.002813006425530602</v>
+        <v>-0.0007973247138136016</v>
       </c>
       <c r="D7">
-        <v>-0.0208932026863849</v>
+        <v>0.03189107415316702</v>
       </c>
       <c r="E7">
-        <v>-0.02748363027595866</v>
+        <v>-0.04137135266200363</v>
       </c>
       <c r="F7">
-        <v>-0.05495982124288021</v>
+        <v>-0.002406246660429967</v>
       </c>
       <c r="G7">
-        <v>0.06489871999736513</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02619279606261242</v>
+      </c>
+      <c r="H7">
+        <v>0.0395609715953828</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01676771159961431</v>
+        <v>0.004469960329366232</v>
       </c>
       <c r="C8">
-        <v>-0.01061323827428959</v>
+        <v>0.002426149980999991</v>
       </c>
       <c r="D8">
-        <v>-0.01798688698895278</v>
+        <v>0.01437761118694525</v>
       </c>
       <c r="E8">
-        <v>-0.03874559533453147</v>
+        <v>-0.005008003037184953</v>
       </c>
       <c r="F8">
-        <v>-0.1001651120679833</v>
+        <v>-0.01794976487084322</v>
       </c>
       <c r="G8">
-        <v>0.05130092900128164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0425046645809185</v>
+      </c>
+      <c r="H8">
+        <v>0.0431005109379612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03559471805404197</v>
+        <v>0.03480633084184624</v>
       </c>
       <c r="C9">
-        <v>-0.007270237638364848</v>
+        <v>0.001193156493999536</v>
       </c>
       <c r="D9">
-        <v>-0.01303360239444229</v>
+        <v>0.04294361815086861</v>
       </c>
       <c r="E9">
-        <v>-0.04027087046238267</v>
+        <v>-0.007523418195522231</v>
       </c>
       <c r="F9">
-        <v>-0.0992548166818177</v>
+        <v>-0.02076616738339595</v>
       </c>
       <c r="G9">
-        <v>0.04511786024850457</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04594903606043457</v>
+      </c>
+      <c r="H9">
+        <v>0.0573404733975109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03691712023272847</v>
+        <v>0.1125039392692366</v>
       </c>
       <c r="C10">
-        <v>0.06590220849359314</v>
+        <v>-0.0002976480875755322</v>
       </c>
       <c r="D10">
-        <v>0.0782669165278025</v>
+        <v>-0.1632371942075916</v>
       </c>
       <c r="E10">
-        <v>0.1195894491899787</v>
+        <v>-0.001585508595219719</v>
       </c>
       <c r="F10">
-        <v>-0.05856221608644972</v>
+        <v>0.03588934002607017</v>
       </c>
       <c r="G10">
-        <v>0.01546635089207562</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03216106654411715</v>
+      </c>
+      <c r="H10">
+        <v>0.003135843191446723</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03257265063547237</v>
+        <v>0.02087296711487498</v>
       </c>
       <c r="C11">
-        <v>-0.02419941601961965</v>
+        <v>0.01265704887195927</v>
       </c>
       <c r="D11">
-        <v>-0.01847123462583267</v>
+        <v>0.04726485048009297</v>
       </c>
       <c r="E11">
-        <v>-0.03003344000455799</v>
+        <v>0.001842015310579243</v>
       </c>
       <c r="F11">
-        <v>-0.05289650028912977</v>
+        <v>-0.01206690978686759</v>
       </c>
       <c r="G11">
-        <v>0.02292147603512675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02742383995481497</v>
+      </c>
+      <c r="H11">
+        <v>0.05012221003515702</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04017305507068875</v>
+        <v>0.02539473488312315</v>
       </c>
       <c r="C12">
-        <v>-0.02464478528340679</v>
+        <v>0.009056102667199526</v>
       </c>
       <c r="D12">
-        <v>-0.01009801858572131</v>
+        <v>0.04599987037710362</v>
       </c>
       <c r="E12">
-        <v>-0.0354360702018151</v>
+        <v>-0.008311804697329858</v>
       </c>
       <c r="F12">
-        <v>-0.02361903372747566</v>
+        <v>-0.01508809314671847</v>
       </c>
       <c r="G12">
-        <v>0.01190798632584737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.007538473067235796</v>
+      </c>
+      <c r="H12">
+        <v>0.02166452894981485</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01727432484399891</v>
+        <v>0.02656260644445225</v>
       </c>
       <c r="C13">
-        <v>-0.02255438252206092</v>
+        <v>-0.01252981597172686</v>
       </c>
       <c r="D13">
-        <v>-0.001186808882477136</v>
+        <v>0.02183505233941945</v>
       </c>
       <c r="E13">
-        <v>-0.005307346893124547</v>
+        <v>0.01210637034856332</v>
       </c>
       <c r="F13">
-        <v>-0.09118466223595742</v>
+        <v>-0.02201724667607774</v>
       </c>
       <c r="G13">
-        <v>0.0435262651528449</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06169137197251359</v>
+      </c>
+      <c r="H13">
+        <v>0.0754626671155158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0172644938438973</v>
+        <v>0.01730253839141471</v>
       </c>
       <c r="C14">
-        <v>-0.001745933186166473</v>
+        <v>-0.0001488065099220329</v>
       </c>
       <c r="D14">
-        <v>-0.004198429746526718</v>
+        <v>0.01397689099200474</v>
       </c>
       <c r="E14">
-        <v>-0.03264301505953912</v>
+        <v>-0.01394370048297402</v>
       </c>
       <c r="F14">
-        <v>-0.06267519248986897</v>
+        <v>-0.01479953185899643</v>
       </c>
       <c r="G14">
-        <v>0.04945500813293666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03969422816371972</v>
+      </c>
+      <c r="H14">
+        <v>0.01379823991808939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03186450314515083</v>
+        <v>0.02297342413183076</v>
       </c>
       <c r="C16">
-        <v>-0.03007682302619368</v>
+        <v>0.01199831564732529</v>
       </c>
       <c r="D16">
-        <v>-0.01626067082749914</v>
+        <v>0.03881912534763455</v>
       </c>
       <c r="E16">
-        <v>-0.03185952942703643</v>
+        <v>-0.001786478736756589</v>
       </c>
       <c r="F16">
-        <v>-0.05102890167996171</v>
+        <v>-0.01563626383578714</v>
       </c>
       <c r="G16">
-        <v>0.02095999107422678</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02253374167750694</v>
+      </c>
+      <c r="H16">
+        <v>0.03745700876396609</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03364132989846173</v>
+        <v>0.02681418935412154</v>
       </c>
       <c r="C19">
-        <v>-0.02452029685173931</v>
+        <v>0.001223575000019654</v>
       </c>
       <c r="D19">
-        <v>-0.01886284393416143</v>
+        <v>0.04213946949227451</v>
       </c>
       <c r="E19">
-        <v>-0.02730447179541944</v>
+        <v>-0.00561024599288065</v>
       </c>
       <c r="F19">
-        <v>-0.1018112400601437</v>
+        <v>-0.02552663053028278</v>
       </c>
       <c r="G19">
-        <v>0.05538801212156311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05672513386962554</v>
+      </c>
+      <c r="H19">
+        <v>0.06323375007343401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003171317710753137</v>
+        <v>0.009650015043866237</v>
       </c>
       <c r="C20">
-        <v>0.0003455212783601539</v>
+        <v>-0.004305221410842128</v>
       </c>
       <c r="D20">
-        <v>-0.005149050642352212</v>
+        <v>0.02153434708205764</v>
       </c>
       <c r="E20">
-        <v>-0.02429359158184499</v>
+        <v>-0.003703802014340661</v>
       </c>
       <c r="F20">
-        <v>-0.0842714433050577</v>
+        <v>-0.01449246961034184</v>
       </c>
       <c r="G20">
-        <v>0.07411397211698362</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05460580315751474</v>
+      </c>
+      <c r="H20">
+        <v>0.02843821799755087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.003586006909936466</v>
+        <v>0.01411578003182237</v>
       </c>
       <c r="C21">
-        <v>0.01362985509952322</v>
+        <v>-0.005659335636061665</v>
       </c>
       <c r="D21">
-        <v>-0.02796967802174755</v>
+        <v>0.02561288853567684</v>
       </c>
       <c r="E21">
-        <v>-0.03366574497512722</v>
+        <v>-0.01913380062950541</v>
       </c>
       <c r="F21">
-        <v>-0.04304682826108993</v>
+        <v>-0.008182067652260818</v>
       </c>
       <c r="G21">
-        <v>0.01322771963202624</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04799119196062037</v>
+      </c>
+      <c r="H21">
+        <v>0.04255167968907379</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02938919938500563</v>
+        <v>0.01798595218572389</v>
       </c>
       <c r="C24">
-        <v>-0.02017747296890215</v>
+        <v>0.006597896588447338</v>
       </c>
       <c r="D24">
-        <v>-0.005210683164936929</v>
+        <v>0.04236327047660313</v>
       </c>
       <c r="E24">
-        <v>-0.01853374244003923</v>
+        <v>-0.0002342551574030107</v>
       </c>
       <c r="F24">
-        <v>-0.05017581185827547</v>
+        <v>-0.0107451254811739</v>
       </c>
       <c r="G24">
-        <v>0.01896828405047325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01713823885913044</v>
+      </c>
+      <c r="H24">
+        <v>0.04647596214415773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03167995708627559</v>
+        <v>0.03017014418887037</v>
       </c>
       <c r="C25">
-        <v>-0.01828107020589907</v>
+        <v>0.004572726558398987</v>
       </c>
       <c r="D25">
-        <v>-0.02123217838620405</v>
+        <v>0.04445533580548967</v>
       </c>
       <c r="E25">
-        <v>-0.02905799031239171</v>
+        <v>-0.005589909545493561</v>
       </c>
       <c r="F25">
-        <v>-0.05243696294856207</v>
+        <v>-0.01840754959070029</v>
       </c>
       <c r="G25">
-        <v>0.01162364556593359</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02165929930043039</v>
+      </c>
+      <c r="H25">
+        <v>0.04302426079045612</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01808832470686974</v>
+        <v>0.01624144196220519</v>
       </c>
       <c r="C26">
-        <v>-0.01684956403423181</v>
+        <v>-0.01821561996978394</v>
       </c>
       <c r="D26">
-        <v>-0.02126552719689235</v>
+        <v>0.009784308986060841</v>
       </c>
       <c r="E26">
-        <v>-0.0008558353991494307</v>
+        <v>-0.0008437817652407632</v>
       </c>
       <c r="F26">
-        <v>-0.06884312421198739</v>
+        <v>-0.002634518099089855</v>
       </c>
       <c r="G26">
-        <v>0.04456181416616073</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02960685565444762</v>
+      </c>
+      <c r="H26">
+        <v>0.02482952267101451</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05001414137724967</v>
+        <v>0.01981530868585048</v>
       </c>
       <c r="C27">
-        <v>-0.01307313079995462</v>
+        <v>0.007767288315172848</v>
       </c>
       <c r="D27">
-        <v>0.02253133984376765</v>
+        <v>0.01335483103001273</v>
       </c>
       <c r="E27">
-        <v>-0.03703609209109592</v>
+        <v>-0.00468283767409633</v>
       </c>
       <c r="F27">
-        <v>-0.04067839037351828</v>
+        <v>-0.01260160188010727</v>
       </c>
       <c r="G27">
-        <v>0.04325522748280863</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.009812265570718412</v>
+      </c>
+      <c r="H27">
+        <v>-0.003141170363511025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06320587143895651</v>
+        <v>0.1620098957454931</v>
       </c>
       <c r="C28">
-        <v>0.09441408672061634</v>
+        <v>-0.009959926305424849</v>
       </c>
       <c r="D28">
-        <v>0.1109105130417048</v>
+        <v>-0.2109745737115623</v>
       </c>
       <c r="E28">
-        <v>0.151118697006524</v>
+        <v>-0.01393976902161768</v>
       </c>
       <c r="F28">
-        <v>-0.05390618096410677</v>
+        <v>0.03079807839995616</v>
       </c>
       <c r="G28">
-        <v>0.01240926412320049</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01857758869523258</v>
+      </c>
+      <c r="H28">
+        <v>-0.006588172103670155</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02251947545185962</v>
+        <v>0.02222432662084049</v>
       </c>
       <c r="C29">
-        <v>-0.001421194170754172</v>
+        <v>0.001518511693265862</v>
       </c>
       <c r="D29">
-        <v>-0.004176124047275526</v>
+        <v>0.01426712313529492</v>
       </c>
       <c r="E29">
-        <v>-0.04026087423141134</v>
+        <v>-0.01425329232246682</v>
       </c>
       <c r="F29">
-        <v>-0.06149305047078198</v>
+        <v>-0.01647263476971029</v>
       </c>
       <c r="G29">
-        <v>0.03618310502974887</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.0389439583451658</v>
+      </c>
+      <c r="H29">
+        <v>0.005505522802191986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08180462202806525</v>
+        <v>0.04864056986191088</v>
       </c>
       <c r="C30">
-        <v>-0.04821804932626315</v>
+        <v>0.00204370750793041</v>
       </c>
       <c r="D30">
-        <v>-0.006027638885963638</v>
+        <v>0.09048416649029226</v>
       </c>
       <c r="E30">
-        <v>-0.06567917271140065</v>
+        <v>0.03311284830611523</v>
       </c>
       <c r="F30">
-        <v>-0.1108201496469055</v>
+        <v>-0.04925409857906848</v>
       </c>
       <c r="G30">
-        <v>0.05703338898672117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06069361997363826</v>
+      </c>
+      <c r="H30">
+        <v>0.078632263151733</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05930357452279557</v>
+        <v>0.04874920570101322</v>
       </c>
       <c r="C31">
-        <v>-0.03424018253638061</v>
+        <v>0.01152712667442743</v>
       </c>
       <c r="D31">
-        <v>-0.006536921235968574</v>
+        <v>0.02702417771251356</v>
       </c>
       <c r="E31">
-        <v>-0.01453388509428318</v>
+        <v>0.004853517752045423</v>
       </c>
       <c r="F31">
-        <v>-0.05138894111671037</v>
+        <v>-0.006091161462010388</v>
       </c>
       <c r="G31">
-        <v>0.04829872334693983</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.01907369758637461</v>
+      </c>
+      <c r="H31">
+        <v>0.002934923706955918</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01811142022921533</v>
+        <v>0.0121491748616293</v>
       </c>
       <c r="C32">
-        <v>-0.0033055634479677</v>
+        <v>0.01400608521625086</v>
       </c>
       <c r="D32">
-        <v>-0.02290454339134992</v>
+        <v>0.01002616933890042</v>
       </c>
       <c r="E32">
-        <v>-0.07311902076619364</v>
+        <v>-0.02836736294785774</v>
       </c>
       <c r="F32">
-        <v>-0.07568820730939087</v>
+        <v>-0.03932047524098297</v>
       </c>
       <c r="G32">
-        <v>0.04163992872804259</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03040637224817567</v>
+      </c>
+      <c r="H32">
+        <v>0.05683412769242063</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04627077075216648</v>
+        <v>0.03087394203184786</v>
       </c>
       <c r="C33">
-        <v>-0.03436547000535273</v>
+        <v>0.00201950913965913</v>
       </c>
       <c r="D33">
-        <v>-0.04094166110871268</v>
+        <v>0.04347850024695992</v>
       </c>
       <c r="E33">
-        <v>-0.02677539689511403</v>
+        <v>0.01976957504241557</v>
       </c>
       <c r="F33">
-        <v>-0.08544755144481313</v>
+        <v>-0.0006017790624464706</v>
       </c>
       <c r="G33">
-        <v>0.04995218425025193</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04661239541681124</v>
+      </c>
+      <c r="H33">
+        <v>0.05073164464127095</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03056308184993134</v>
+        <v>0.02774243833742715</v>
       </c>
       <c r="C34">
-        <v>-0.0253767850774684</v>
+        <v>0.02032118891442275</v>
       </c>
       <c r="D34">
-        <v>-0.01653147726598501</v>
+        <v>0.04095557249678247</v>
       </c>
       <c r="E34">
-        <v>-0.03731210982589692</v>
+        <v>-0.01201632756481991</v>
       </c>
       <c r="F34">
-        <v>-0.05896344296597376</v>
+        <v>-0.01822771698861987</v>
       </c>
       <c r="G34">
-        <v>0.01957791060038802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01376589549030152</v>
+      </c>
+      <c r="H34">
+        <v>0.03714899439248395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01469065643916492</v>
+        <v>0.01720136068474256</v>
       </c>
       <c r="C36">
-        <v>0.0006558476028742129</v>
+        <v>-0.005961131003925674</v>
       </c>
       <c r="D36">
-        <v>-0.007548107251009624</v>
+        <v>0.005424189599911682</v>
       </c>
       <c r="E36">
-        <v>-0.02348842505614517</v>
+        <v>-0.009015631521870364</v>
       </c>
       <c r="F36">
-        <v>-0.03853778421485869</v>
+        <v>-0.002681003605038895</v>
       </c>
       <c r="G36">
-        <v>0.02981816442583593</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02063690676905449</v>
+      </c>
+      <c r="H36">
+        <v>0.01667460372622562</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004861240317825952</v>
+        <v>0.0254467811746527</v>
       </c>
       <c r="C38">
-        <v>-0.0004363465883390903</v>
+        <v>0.01630147182280135</v>
       </c>
       <c r="D38">
-        <v>-0.01773863396392832</v>
+        <v>0.01332487779025717</v>
       </c>
       <c r="E38">
-        <v>0.02536742296962129</v>
+        <v>0.001321546727147927</v>
       </c>
       <c r="F38">
-        <v>-0.04514139517254401</v>
+        <v>-0.008947101683304495</v>
       </c>
       <c r="G38">
-        <v>0.01300368348602408</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02333599480016258</v>
+      </c>
+      <c r="H38">
+        <v>0.04436785608345758</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03185458272108712</v>
+        <v>0.01508036396201717</v>
       </c>
       <c r="C39">
-        <v>-0.03841867592761532</v>
+        <v>0.01009703276830385</v>
       </c>
       <c r="D39">
-        <v>-0.02362845273775239</v>
+        <v>0.08698723601426543</v>
       </c>
       <c r="E39">
-        <v>-0.03780560226710705</v>
+        <v>0.008550922391202665</v>
       </c>
       <c r="F39">
-        <v>-0.07035445974294874</v>
+        <v>-0.01798234566839833</v>
       </c>
       <c r="G39">
-        <v>0.02645786476649963</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.03921924136719543</v>
+      </c>
+      <c r="H39">
+        <v>0.07817251655650191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03534351519759298</v>
+        <v>0.03046144791935687</v>
       </c>
       <c r="C40">
-        <v>-0.06712623644760185</v>
+        <v>0.002724580692390732</v>
       </c>
       <c r="D40">
-        <v>0.00966937598937067</v>
+        <v>0.03281823720524798</v>
       </c>
       <c r="E40">
-        <v>-0.0120935678082493</v>
+        <v>0.0258432023119567</v>
       </c>
       <c r="F40">
-        <v>-0.09398114949781509</v>
+        <v>-0.03542948569101296</v>
       </c>
       <c r="G40">
-        <v>0.04618386308178591</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02237537608784883</v>
+      </c>
+      <c r="H40">
+        <v>0.06563508644977108</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.002376838253381291</v>
+        <v>0.01164556667738429</v>
       </c>
       <c r="C41">
-        <v>-0.0004264778630597599</v>
+        <v>-0.003215181523132668</v>
       </c>
       <c r="D41">
-        <v>-0.00925416957121309</v>
+        <v>-0.01345621044849475</v>
       </c>
       <c r="E41">
-        <v>-0.001181908901737459</v>
+        <v>-0.001434807990882879</v>
       </c>
       <c r="F41">
-        <v>-0.0160744386488098</v>
+        <v>0.003046177745027052</v>
       </c>
       <c r="G41">
-        <v>0.0506331350139285</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.0006221681767177891</v>
+      </c>
+      <c r="H41">
+        <v>-0.004576642260901002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3339624472612432</v>
+        <v>0.1551217402533106</v>
       </c>
       <c r="C42">
-        <v>0.06147958713442822</v>
+        <v>-0.06306811953666371</v>
       </c>
       <c r="D42">
-        <v>-0.6963116590673928</v>
+        <v>0.2380932816576359</v>
       </c>
       <c r="E42">
-        <v>0.4837697683822701</v>
+        <v>0.2252749475988393</v>
       </c>
       <c r="F42">
-        <v>0.310476188227474</v>
+        <v>0.8957487246082416</v>
       </c>
       <c r="G42">
-        <v>0.1745712679471222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.2030276165737673</v>
+      </c>
+      <c r="H42">
+        <v>0.003328459813576423</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.002500828898295538</v>
+        <v>0.01402919801188146</v>
       </c>
       <c r="C43">
-        <v>-0.0008019282478583123</v>
+        <v>-0.00318351452875252</v>
       </c>
       <c r="D43">
-        <v>-0.01316590263270322</v>
+        <v>-0.01058681442006398</v>
       </c>
       <c r="E43">
-        <v>-0.002989467978061106</v>
+        <v>0.002403807789549794</v>
       </c>
       <c r="F43">
-        <v>-0.03636465911433317</v>
+        <v>0.003889658854544622</v>
       </c>
       <c r="G43">
-        <v>0.0457255701217048</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.00269185642455638</v>
+      </c>
+      <c r="H43">
+        <v>0.008622514362575499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01892607292354165</v>
+        <v>0.01800443932083278</v>
       </c>
       <c r="C44">
-        <v>-0.0002673695984723456</v>
+        <v>0.006499328538470984</v>
       </c>
       <c r="D44">
-        <v>-0.01688207576552944</v>
+        <v>0.03600700501880864</v>
       </c>
       <c r="E44">
-        <v>-0.006090286159907016</v>
+        <v>-0.006312256473849078</v>
       </c>
       <c r="F44">
-        <v>-0.1165053833128811</v>
+        <v>-0.002072033469539787</v>
       </c>
       <c r="G44">
-        <v>0.07861908183657762</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04241655728384994</v>
+      </c>
+      <c r="H44">
+        <v>0.06673820847614108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02090493435335953</v>
+        <v>0.01396956423513626</v>
       </c>
       <c r="C46">
-        <v>-0.01572309357288718</v>
+        <v>-0.004545214291838785</v>
       </c>
       <c r="D46">
-        <v>-0.02396821876989982</v>
+        <v>0.01471387642511186</v>
       </c>
       <c r="E46">
-        <v>-0.03863706218421442</v>
+        <v>-0.0003968983195189261</v>
       </c>
       <c r="F46">
-        <v>-0.07640046157480022</v>
+        <v>-0.01179917533173877</v>
       </c>
       <c r="G46">
-        <v>0.05188234123306687</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04389441145073869</v>
+      </c>
+      <c r="H46">
+        <v>0.008239845711424984</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09304576652090155</v>
+        <v>0.07169462405935696</v>
       </c>
       <c r="C47">
-        <v>-0.03159236894600466</v>
+        <v>0.02880075985637059</v>
       </c>
       <c r="D47">
-        <v>0.002409070818707861</v>
+        <v>0.05159569473382677</v>
       </c>
       <c r="E47">
-        <v>-0.03073368155623895</v>
+        <v>-0.002066364853845403</v>
       </c>
       <c r="F47">
-        <v>-0.04007196746389063</v>
+        <v>-0.01488855974558517</v>
       </c>
       <c r="G47">
-        <v>0.08026206818699594</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008580566839003009</v>
+      </c>
+      <c r="H47">
+        <v>-0.02310872608255422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01929357387921537</v>
+        <v>0.01984109257749984</v>
       </c>
       <c r="C48">
-        <v>-0.009467308486928715</v>
+        <v>0.00570519662166442</v>
       </c>
       <c r="D48">
-        <v>-0.01405149557386635</v>
+        <v>0.0131478598298721</v>
       </c>
       <c r="E48">
-        <v>-0.02200266341876434</v>
+        <v>-0.001167824167104159</v>
       </c>
       <c r="F48">
-        <v>-0.04106896067585613</v>
+        <v>-0.007010853297550612</v>
       </c>
       <c r="G48">
-        <v>0.02302972984972346</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02280042296218767</v>
+      </c>
+      <c r="H48">
+        <v>0.01845103967777832</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08922297854088586</v>
+        <v>0.06970803855430492</v>
       </c>
       <c r="C50">
-        <v>-0.03030503932592935</v>
+        <v>0.02572460041074558</v>
       </c>
       <c r="D50">
-        <v>-0.02304010431961697</v>
+        <v>0.05084804609440821</v>
       </c>
       <c r="E50">
-        <v>-0.02991914746569779</v>
+        <v>-0.01488862513617244</v>
       </c>
       <c r="F50">
-        <v>-0.04198226676338154</v>
+        <v>-0.004464797042988573</v>
       </c>
       <c r="G50">
-        <v>0.03606330038622686</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.004933696171495786</v>
+      </c>
+      <c r="H50">
+        <v>-0.005608171084638881</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01757240139191761</v>
+        <v>0.01940979503821863</v>
       </c>
       <c r="C51">
-        <v>0.002380340257812453</v>
+        <v>-0.0005775322848856584</v>
       </c>
       <c r="D51">
-        <v>0.001730642168015118</v>
+        <v>0.008687440638161445</v>
       </c>
       <c r="E51">
-        <v>0.008377915357395583</v>
+        <v>-0.00649914249671545</v>
       </c>
       <c r="F51">
-        <v>-0.1001945589768586</v>
+        <v>-0.004274563448034198</v>
       </c>
       <c r="G51">
-        <v>0.06152225265630627</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03856170723024127</v>
+      </c>
+      <c r="H51">
+        <v>0.05116434090786649</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0986567263405302</v>
+        <v>0.08319832747053311</v>
       </c>
       <c r="C53">
-        <v>-0.04044627136092393</v>
+        <v>0.03693166621461165</v>
       </c>
       <c r="D53">
-        <v>-0.001300993152204031</v>
+        <v>0.08856320672359777</v>
       </c>
       <c r="E53">
-        <v>-0.04575114598460819</v>
+        <v>-0.004885706159710171</v>
       </c>
       <c r="F53">
-        <v>0.02754965203960725</v>
+        <v>-0.0299861571377157</v>
       </c>
       <c r="G53">
-        <v>0.01954219732170457</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03756695060465542</v>
+      </c>
+      <c r="H53">
+        <v>-0.03562207337802299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01754128935948946</v>
+        <v>0.02955037771787647</v>
       </c>
       <c r="C54">
-        <v>0.002950106191525202</v>
+        <v>0.008027279058192211</v>
       </c>
       <c r="D54">
-        <v>-0.002298059651455495</v>
+        <v>-0.01240762748714352</v>
       </c>
       <c r="E54">
-        <v>-0.03217637624460252</v>
+        <v>-0.00725674342025116</v>
       </c>
       <c r="F54">
-        <v>-0.05065782597563984</v>
+        <v>-0.006239494671946553</v>
       </c>
       <c r="G54">
-        <v>0.04117152721938197</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.0385281263670532</v>
+      </c>
+      <c r="H54">
+        <v>0.00239086453873127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1006881080747506</v>
+        <v>0.07040427662646029</v>
       </c>
       <c r="C55">
-        <v>-0.02254963970279397</v>
+        <v>0.0334675493767574</v>
       </c>
       <c r="D55">
-        <v>-0.008290324054229985</v>
+        <v>0.08241735304517966</v>
       </c>
       <c r="E55">
-        <v>-0.06437493981301254</v>
+        <v>-0.01258563296778555</v>
       </c>
       <c r="F55">
-        <v>0.01898764610648626</v>
+        <v>-0.0216794078539785</v>
       </c>
       <c r="G55">
-        <v>0.04802821282743227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01521267385999808</v>
+      </c>
+      <c r="H55">
+        <v>-0.04462590695375271</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1421061039913893</v>
+        <v>0.1181228568140804</v>
       </c>
       <c r="C56">
-        <v>-0.05672889447927583</v>
+        <v>0.05508526872267164</v>
       </c>
       <c r="D56">
-        <v>0.03548391861352439</v>
+        <v>0.1063484575894383</v>
       </c>
       <c r="E56">
-        <v>-0.07293454594443569</v>
+        <v>-0.004870448357323498</v>
       </c>
       <c r="F56">
-        <v>0.06046811795672712</v>
+        <v>-0.05345397340978283</v>
       </c>
       <c r="G56">
-        <v>-0.02301278981292271</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07155969686498029</v>
+      </c>
+      <c r="H56">
+        <v>-0.06040026344632164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04894252501414473</v>
+        <v>0.03572204474525383</v>
       </c>
       <c r="C57">
-        <v>-0.02084797357045175</v>
+        <v>-0.01102797624458065</v>
       </c>
       <c r="D57">
-        <v>-0.01204555727531257</v>
+        <v>0.03323869259275176</v>
       </c>
       <c r="E57">
-        <v>0.009694180637650596</v>
+        <v>0.01076144220260199</v>
       </c>
       <c r="F57">
-        <v>-0.06022493343088769</v>
+        <v>-0.007687891498828347</v>
       </c>
       <c r="G57">
-        <v>0.03401217960030205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.0723911971218216</v>
+      </c>
+      <c r="H57">
+        <v>0.05092638710072312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2190996385295396</v>
+        <v>0.1365016856602682</v>
       </c>
       <c r="C58">
-        <v>-0.1109384817048949</v>
+        <v>0.04832648673663367</v>
       </c>
       <c r="D58">
-        <v>-0.1153085038565486</v>
+        <v>0.1536843450783971</v>
       </c>
       <c r="E58">
-        <v>-0.08513008555675172</v>
+        <v>0.2192024441478919</v>
       </c>
       <c r="F58">
-        <v>-0.3695380651578487</v>
+        <v>0.07715878166422781</v>
       </c>
       <c r="G58">
-        <v>-0.0382034581191502</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8115174995894698</v>
+      </c>
+      <c r="H58">
+        <v>-0.3945370267451172</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05575238218806713</v>
+        <v>0.1738986118483867</v>
       </c>
       <c r="C59">
-        <v>0.05042374876930403</v>
+        <v>-0.001186809499561539</v>
       </c>
       <c r="D59">
-        <v>0.1212507015286557</v>
+        <v>-0.2096186350126693</v>
       </c>
       <c r="E59">
-        <v>0.1343450308631505</v>
+        <v>0.004094977282542888</v>
       </c>
       <c r="F59">
-        <v>-0.07564163064149665</v>
+        <v>0.001933914212794326</v>
       </c>
       <c r="G59">
-        <v>-0.02658383599213817</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01834408210713919</v>
+      </c>
+      <c r="H59">
+        <v>0.02833543271670924</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1552250337877657</v>
+        <v>0.1935551652648835</v>
       </c>
       <c r="C60">
-        <v>-0.0800917523662822</v>
+        <v>0.02794883396480453</v>
       </c>
       <c r="D60">
-        <v>-0.01827845460801864</v>
+        <v>0.02891689744299707</v>
       </c>
       <c r="E60">
-        <v>0.08761875646313504</v>
+        <v>0.05371124962285406</v>
       </c>
       <c r="F60">
-        <v>-0.1712427052168583</v>
+        <v>-0.05392164548320792</v>
       </c>
       <c r="G60">
-        <v>-0.314812405066915</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.02598783034046354</v>
+      </c>
+      <c r="H60">
+        <v>0.3685658977306492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02420780477690743</v>
+        <v>0.02111786697194744</v>
       </c>
       <c r="C61">
-        <v>-0.02479028091347961</v>
+        <v>0.01196722648751985</v>
       </c>
       <c r="D61">
-        <v>-0.01744794407857348</v>
+        <v>0.05512201537825918</v>
       </c>
       <c r="E61">
-        <v>-0.02600596697459296</v>
+        <v>-0.001385044611072478</v>
       </c>
       <c r="F61">
-        <v>-0.03619485492891328</v>
+        <v>-0.02133257361532547</v>
       </c>
       <c r="G61">
-        <v>0.01153361687005197</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02532705020421366</v>
+      </c>
+      <c r="H61">
+        <v>0.05874944002856535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01079721798561857</v>
+        <v>0.01121298959135442</v>
       </c>
       <c r="C63">
-        <v>-0.01810089194891706</v>
+        <v>-0.0007757549811458339</v>
       </c>
       <c r="D63">
-        <v>-0.02181719646439073</v>
+        <v>0.0237802014421243</v>
       </c>
       <c r="E63">
-        <v>-0.0248480836463371</v>
+        <v>-0.005409571992895203</v>
       </c>
       <c r="F63">
-        <v>-0.01575645289816945</v>
+        <v>-0.01100177798656733</v>
       </c>
       <c r="G63">
-        <v>0.06893486924360412</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01684654829736369</v>
+      </c>
+      <c r="H63">
+        <v>0.01351618196524253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03970955062049583</v>
+        <v>0.03862628233817023</v>
       </c>
       <c r="C64">
-        <v>0.003756044265132813</v>
+        <v>0.01108690310934132</v>
       </c>
       <c r="D64">
-        <v>-0.007406098507083869</v>
+        <v>0.04124466008223304</v>
       </c>
       <c r="E64">
-        <v>-0.05580874630537257</v>
+        <v>-0.01172977137247414</v>
       </c>
       <c r="F64">
-        <v>-0.04360807314552985</v>
+        <v>-0.003610792185513394</v>
       </c>
       <c r="G64">
-        <v>0.05400321284164487</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.006365939690997157</v>
+      </c>
+      <c r="H64">
+        <v>0.04236680909501803</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03891105053551568</v>
+        <v>0.0383380293591141</v>
       </c>
       <c r="C65">
-        <v>-0.01411820216861858</v>
+        <v>0.004578381369671224</v>
       </c>
       <c r="D65">
-        <v>-0.00751680532556181</v>
+        <v>0.07159383638941652</v>
       </c>
       <c r="E65">
-        <v>-0.02742540434601885</v>
+        <v>-0.005409030458957553</v>
       </c>
       <c r="F65">
-        <v>-0.008573839687495225</v>
+        <v>-0.03857435911791873</v>
       </c>
       <c r="G65">
-        <v>-0.02221634880153529</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.004103987511797328</v>
+      </c>
+      <c r="H65">
+        <v>0.07350655724111138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03881219908352213</v>
+        <v>0.02366240572320281</v>
       </c>
       <c r="C66">
-        <v>-0.05672855061894413</v>
+        <v>0.01797464320951107</v>
       </c>
       <c r="D66">
-        <v>-0.02276787337932236</v>
+        <v>0.1090242040983657</v>
       </c>
       <c r="E66">
-        <v>-0.04941156855685427</v>
+        <v>0.01083664247679792</v>
       </c>
       <c r="F66">
-        <v>-0.0590030615312893</v>
+        <v>-0.03881818720847353</v>
       </c>
       <c r="G66">
-        <v>0.01159714916274117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03640019470528898</v>
+      </c>
+      <c r="H66">
+        <v>0.08272951047913064</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01459815077012678</v>
+        <v>0.04575369175551982</v>
       </c>
       <c r="C67">
-        <v>-0.008211490275697385</v>
+        <v>0.01816224576592968</v>
       </c>
       <c r="D67">
-        <v>-0.006864232670122916</v>
+        <v>0.01535670810863933</v>
       </c>
       <c r="E67">
-        <v>0.0310576372828356</v>
+        <v>0.004002184143300103</v>
       </c>
       <c r="F67">
-        <v>-0.02850346370648693</v>
+        <v>-0.0186194322751456</v>
       </c>
       <c r="G67">
-        <v>0.006589110493826115</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01307022705736278</v>
+      </c>
+      <c r="H67">
+        <v>0.04493069296908874</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07203477935879245</v>
+        <v>0.1706240673776273</v>
       </c>
       <c r="C68">
-        <v>0.07009155043706726</v>
+        <v>-0.02546060733358637</v>
       </c>
       <c r="D68">
-        <v>0.1358947977480804</v>
+        <v>-0.2284526544738554</v>
       </c>
       <c r="E68">
-        <v>0.1423582325283648</v>
+        <v>0.002282649117769284</v>
       </c>
       <c r="F68">
-        <v>-0.05535326139040067</v>
+        <v>0.03997767123114929</v>
       </c>
       <c r="G68">
-        <v>-0.06458349421918681</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.0274698496614742</v>
+      </c>
+      <c r="H68">
+        <v>-0.04900652398396227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06738959419699653</v>
+        <v>0.05976053985883476</v>
       </c>
       <c r="C69">
-        <v>-0.042883788054435</v>
+        <v>0.02962218446980523</v>
       </c>
       <c r="D69">
-        <v>0.01432452033243047</v>
+        <v>0.04760890576801375</v>
       </c>
       <c r="E69">
-        <v>-0.02464501040221977</v>
+        <v>-0.0008805764059250347</v>
       </c>
       <c r="F69">
-        <v>-0.03228236384334812</v>
+        <v>-0.02945259827939908</v>
       </c>
       <c r="G69">
-        <v>0.06930995867472457</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01211674207704066</v>
+      </c>
+      <c r="H69">
+        <v>0.007821847372185222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07592077905265751</v>
+        <v>0.1580635411254988</v>
       </c>
       <c r="C71">
-        <v>0.07124456565813854</v>
+        <v>-0.01188153583468954</v>
       </c>
       <c r="D71">
-        <v>0.1207969399130163</v>
+        <v>-0.1885245783354575</v>
       </c>
       <c r="E71">
-        <v>0.19571599953477</v>
+        <v>0.009743256214493153</v>
       </c>
       <c r="F71">
-        <v>-0.05669032712639319</v>
+        <v>0.04746413915261902</v>
       </c>
       <c r="G71">
-        <v>0.01377947805515327</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03095885192691176</v>
+      </c>
+      <c r="H71">
+        <v>-0.02201714516613573</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1164717369132095</v>
+        <v>0.0739960962991871</v>
       </c>
       <c r="C72">
-        <v>-0.06895360224601003</v>
+        <v>0.03999778506733045</v>
       </c>
       <c r="D72">
-        <v>0.01815242788953535</v>
+        <v>0.08177834100368847</v>
       </c>
       <c r="E72">
-        <v>-0.04910439233067778</v>
+        <v>0.01631167202186993</v>
       </c>
       <c r="F72">
-        <v>-0.07223490688477563</v>
+        <v>-0.06617313094936078</v>
       </c>
       <c r="G72">
-        <v>-0.10977492516248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02191038479174211</v>
+      </c>
+      <c r="H72">
+        <v>0.132003955989137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2237378190211562</v>
+        <v>0.2558563506319937</v>
       </c>
       <c r="C73">
-        <v>-0.1063566133025969</v>
+        <v>0.04264848223901802</v>
       </c>
       <c r="D73">
-        <v>-0.01684986023659903</v>
+        <v>0.0972508193839719</v>
       </c>
       <c r="E73">
-        <v>0.1752278005439537</v>
+        <v>0.09408262681908844</v>
       </c>
       <c r="F73">
-        <v>-0.2102907702835932</v>
+        <v>-0.05945259874495833</v>
       </c>
       <c r="G73">
-        <v>-0.4568502575556092</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.04341471793897074</v>
+      </c>
+      <c r="H73">
+        <v>0.4794275302912716</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1339963388544549</v>
+        <v>0.1136623402743083</v>
       </c>
       <c r="C74">
-        <v>-0.03697071772002444</v>
+        <v>0.05420011283082839</v>
       </c>
       <c r="D74">
-        <v>0.01174990330066586</v>
+        <v>0.1105482393676547</v>
       </c>
       <c r="E74">
-        <v>-0.04974852265586407</v>
+        <v>-0.006939513948380042</v>
       </c>
       <c r="F74">
-        <v>0.07427357505202561</v>
+        <v>-0.03891882892503916</v>
       </c>
       <c r="G74">
-        <v>0.01127507871768328</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05856045536208913</v>
+      </c>
+      <c r="H74">
+        <v>-0.02689176681573012</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2258727798991111</v>
+        <v>0.2240245212985599</v>
       </c>
       <c r="C75">
-        <v>-0.1037563854942002</v>
+        <v>0.1002328939060469</v>
       </c>
       <c r="D75">
-        <v>0.07639144482550354</v>
+        <v>0.1678329261392199</v>
       </c>
       <c r="E75">
-        <v>-0.1044748827140391</v>
+        <v>0.01174764797894395</v>
       </c>
       <c r="F75">
-        <v>0.1001650754144886</v>
+        <v>-0.09897563992987779</v>
       </c>
       <c r="G75">
-        <v>0.02062385436654616</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1212699504548728</v>
+      </c>
+      <c r="H75">
+        <v>-0.1371736008896214</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2785470534506632</v>
+        <v>0.186276557385095</v>
       </c>
       <c r="C76">
-        <v>-0.09212024924918355</v>
+        <v>0.09287898316882813</v>
       </c>
       <c r="D76">
-        <v>0.1041153922404758</v>
+        <v>0.169466022054988</v>
       </c>
       <c r="E76">
-        <v>-0.1567172368067028</v>
+        <v>-0.03711367680930851</v>
       </c>
       <c r="F76">
-        <v>0.1726104375083078</v>
+        <v>-0.09241102455255362</v>
       </c>
       <c r="G76">
-        <v>-0.001996525012549412</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1146972748834243</v>
+      </c>
+      <c r="H76">
+        <v>-0.133073331991504</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1285466290103722</v>
+        <v>0.0678269580665329</v>
       </c>
       <c r="C77">
-        <v>-0.05815437845762947</v>
+        <v>0.01488694540866123</v>
       </c>
       <c r="D77">
-        <v>-0.1033232943198176</v>
+        <v>0.0822630190010155</v>
       </c>
       <c r="E77">
-        <v>-0.04838695746740317</v>
+        <v>0.01588307027594329</v>
       </c>
       <c r="F77">
-        <v>-0.1730697643620846</v>
+        <v>0.01510767300859037</v>
       </c>
       <c r="G77">
-        <v>0.241153569434455</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.08211515158390101</v>
+      </c>
+      <c r="H77">
+        <v>0.01444775182210614</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07683360032041771</v>
+        <v>0.03658265142965126</v>
       </c>
       <c r="C78">
-        <v>-0.0355906955799344</v>
+        <v>0.01528015065286006</v>
       </c>
       <c r="D78">
-        <v>-0.0576299390914058</v>
+        <v>0.06873439399241417</v>
       </c>
       <c r="E78">
-        <v>-0.07455843588636482</v>
+        <v>-0.0009832167371708375</v>
       </c>
       <c r="F78">
-        <v>-0.1046229629584001</v>
+        <v>-0.02021218453153258</v>
       </c>
       <c r="G78">
-        <v>0.02529434347918584</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06400005651890811</v>
+      </c>
+      <c r="H78">
+        <v>0.08546509759911314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2638337492152907</v>
+        <v>0.1296538961018577</v>
       </c>
       <c r="C80">
-        <v>0.8730804770107952</v>
+        <v>0.03637644174986395</v>
       </c>
       <c r="D80">
-        <v>-0.09420268624611945</v>
+        <v>0.1022090604575663</v>
       </c>
       <c r="E80">
-        <v>-0.3465259975319132</v>
+        <v>-0.930269704479592</v>
       </c>
       <c r="F80">
-        <v>-0.04141823506657302</v>
+        <v>0.229179762688078</v>
       </c>
       <c r="G80">
-        <v>-0.1130859829685127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1551350668426882</v>
+      </c>
+      <c r="H80">
+        <v>0.004772726557869512</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1779567282949269</v>
+        <v>0.1491253453756914</v>
       </c>
       <c r="C81">
-        <v>-0.07097396680170148</v>
+        <v>0.06575375285741088</v>
       </c>
       <c r="D81">
-        <v>0.08150834474308623</v>
+        <v>0.1102501927105617</v>
       </c>
       <c r="E81">
-        <v>-0.08748872341696885</v>
+        <v>-0.01054704967144702</v>
       </c>
       <c r="F81">
-        <v>0.1105829361777153</v>
+        <v>-0.06697724972155587</v>
       </c>
       <c r="G81">
-        <v>-0.01250038129867171</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08100557114914929</v>
+      </c>
+      <c r="H81">
+        <v>-0.08863130298814921</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03734345614025332</v>
+        <v>0.03262340820715234</v>
       </c>
       <c r="C83">
-        <v>-0.02632590790679201</v>
+        <v>0.006543825910692706</v>
       </c>
       <c r="D83">
-        <v>-0.02086253541120271</v>
+        <v>0.02466459427910419</v>
       </c>
       <c r="E83">
-        <v>-0.001258470969325173</v>
+        <v>0.008877160648464125</v>
       </c>
       <c r="F83">
-        <v>-0.07353486889605587</v>
+        <v>-0.009754019886461889</v>
       </c>
       <c r="G83">
-        <v>0.03300205794023553</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04754084657259566</v>
+      </c>
+      <c r="H83">
+        <v>0.04138219843449514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2625568030606388</v>
+        <v>0.2095807186839238</v>
       </c>
       <c r="C85">
-        <v>-0.08693896288382613</v>
+        <v>0.08485971112365874</v>
       </c>
       <c r="D85">
-        <v>0.0796853079407671</v>
+        <v>0.1751897536340658</v>
       </c>
       <c r="E85">
-        <v>-0.1178346256119355</v>
+        <v>0.005435694224211919</v>
       </c>
       <c r="F85">
-        <v>0.1199990821993388</v>
+        <v>-0.08116426814767472</v>
       </c>
       <c r="G85">
-        <v>0.02553915193517125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1333572571530376</v>
+      </c>
+      <c r="H85">
+        <v>-0.09642066234912895</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01277771677840723</v>
+        <v>0.02423904581850443</v>
       </c>
       <c r="C86">
-        <v>-0.00572552743342624</v>
+        <v>0.004317962604950871</v>
       </c>
       <c r="D86">
-        <v>-0.03831030082842649</v>
+        <v>0.03716820835133261</v>
       </c>
       <c r="E86">
-        <v>-0.03278931466084457</v>
+        <v>0.0001553535663568666</v>
       </c>
       <c r="F86">
-        <v>-0.08241059952340693</v>
+        <v>0.003906069585242812</v>
       </c>
       <c r="G86">
-        <v>0.06067130990646694</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05650894718781911</v>
+      </c>
+      <c r="H86">
+        <v>0.09415449576012461</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.04583529192693753</v>
+        <v>0.02392854916986945</v>
       </c>
       <c r="C87">
-        <v>0.001320779435970989</v>
+        <v>0.005229756357559059</v>
       </c>
       <c r="D87">
-        <v>-0.02865393704442983</v>
+        <v>0.04827463113784443</v>
       </c>
       <c r="E87">
-        <v>-0.01705522776317518</v>
+        <v>-0.003761161456008361</v>
       </c>
       <c r="F87">
-        <v>-0.1177929182654431</v>
+        <v>-0.004946723173610592</v>
       </c>
       <c r="G87">
-        <v>0.03871428631925634</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08133974405397465</v>
+      </c>
+      <c r="H87">
+        <v>0.08144407043828596</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01462958901905969</v>
+        <v>0.04280752126492589</v>
       </c>
       <c r="C88">
-        <v>0.007569454850956826</v>
+        <v>-0.00967057958315698</v>
       </c>
       <c r="D88">
-        <v>0.01780197499762846</v>
+        <v>0.01973505081485102</v>
       </c>
       <c r="E88">
-        <v>-0.01760351589055653</v>
+        <v>-0.01206427632685931</v>
       </c>
       <c r="F88">
-        <v>-0.0006298128047635362</v>
+        <v>-0.01848125361736611</v>
       </c>
       <c r="G88">
-        <v>0.05713735888819834</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.00042756028236088</v>
+      </c>
+      <c r="H88">
+        <v>0.01990878400136193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1033745666937789</v>
+        <v>0.2756842586573795</v>
       </c>
       <c r="C89">
-        <v>0.1026652054123002</v>
+        <v>-0.02331656986851204</v>
       </c>
       <c r="D89">
-        <v>0.2059407854496958</v>
+        <v>-0.3377239590937343</v>
       </c>
       <c r="E89">
-        <v>0.2430495674221131</v>
+        <v>0.009840007856037107</v>
       </c>
       <c r="F89">
-        <v>-0.09565808038957199</v>
+        <v>0.02594586061311821</v>
       </c>
       <c r="G89">
-        <v>0.004247430701380716</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.00130544789562637</v>
+      </c>
+      <c r="H89">
+        <v>0.01002880981012043</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.08635706652307597</v>
+        <v>0.2257257784781353</v>
       </c>
       <c r="C90">
-        <v>0.1430002768763801</v>
+        <v>-0.02260017153138768</v>
       </c>
       <c r="D90">
-        <v>0.228271171552457</v>
+        <v>-0.3103170949095104</v>
       </c>
       <c r="E90">
-        <v>0.2515416030240439</v>
+        <v>0.004496503599491373</v>
       </c>
       <c r="F90">
-        <v>-0.05286275191544965</v>
+        <v>0.052031030588866</v>
       </c>
       <c r="G90">
-        <v>0.04761416731406748</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.01061743158112999</v>
+      </c>
+      <c r="H90">
+        <v>-0.05263674179960746</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3025948101295913</v>
+        <v>0.2235065400469622</v>
       </c>
       <c r="C91">
-        <v>-0.1305683342367039</v>
+        <v>0.09682489193655983</v>
       </c>
       <c r="D91">
-        <v>0.08534997066212546</v>
+        <v>0.1561785006740859</v>
       </c>
       <c r="E91">
-        <v>-0.1064389353233361</v>
+        <v>0.01108149753503833</v>
       </c>
       <c r="F91">
-        <v>0.2350116181372918</v>
+        <v>-0.08447425809699322</v>
       </c>
       <c r="G91">
-        <v>-0.01072045908078791</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1416532828230093</v>
+      </c>
+      <c r="H91">
+        <v>-0.1695911143045313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1703772150017593</v>
+        <v>0.2629561469825729</v>
       </c>
       <c r="C92">
-        <v>0.08011250134544022</v>
+        <v>0.04619247626237875</v>
       </c>
       <c r="D92">
-        <v>0.3868755131140145</v>
+        <v>-0.227213166110474</v>
       </c>
       <c r="E92">
-        <v>0.1886106699045629</v>
+        <v>-0.01136533212953159</v>
       </c>
       <c r="F92">
-        <v>0.05983244407843256</v>
+        <v>-0.01616528713527602</v>
       </c>
       <c r="G92">
-        <v>0.47550827508578</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02111615994674415</v>
+      </c>
+      <c r="H92">
+        <v>-0.1134946142539113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09217514450389322</v>
+        <v>0.2498302343516847</v>
       </c>
       <c r="C93">
-        <v>0.1277304370230157</v>
+        <v>-0.01307255985114116</v>
       </c>
       <c r="D93">
-        <v>0.268135900815578</v>
+        <v>-0.3144594601379338</v>
       </c>
       <c r="E93">
-        <v>0.3515602170569461</v>
+        <v>0.0258662651394751</v>
       </c>
       <c r="F93">
-        <v>-0.01877344176734391</v>
+        <v>0.05387301410990598</v>
       </c>
       <c r="G93">
-        <v>-0.03950919121190923</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.006346596118609693</v>
+      </c>
+      <c r="H93">
+        <v>0.01146389318240864</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2957834255533986</v>
+        <v>0.272865131641727</v>
       </c>
       <c r="C94">
-        <v>-0.1553546987189315</v>
+        <v>0.09208162976015871</v>
       </c>
       <c r="D94">
-        <v>0.1714598983143365</v>
+        <v>0.1558803889321188</v>
       </c>
       <c r="E94">
-        <v>-0.1480132292173757</v>
+        <v>0.03135490915869094</v>
       </c>
       <c r="F94">
-        <v>0.1761415799527632</v>
+        <v>-0.1847170395087545</v>
       </c>
       <c r="G94">
-        <v>-0.04528598932518225</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2342744701551909</v>
+      </c>
+      <c r="H94">
+        <v>-0.2863694174240103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05034540532649086</v>
+        <v>0.05161328801905265</v>
       </c>
       <c r="C95">
-        <v>-0.04544039893896746</v>
+        <v>0.03502891031717643</v>
       </c>
       <c r="D95">
-        <v>-0.05476640310952137</v>
+        <v>0.08534756786070929</v>
       </c>
       <c r="E95">
-        <v>-0.05357932714048479</v>
+        <v>0.083673606464347</v>
       </c>
       <c r="F95">
-        <v>-0.065444662925897</v>
+        <v>0.006893457523557182</v>
       </c>
       <c r="G95">
-        <v>0.2099267915542999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.05017028068792346</v>
+      </c>
+      <c r="H95">
+        <v>0.05260117334358139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1623436901156752</v>
+        <v>0.1811870993891231</v>
       </c>
       <c r="C98">
-        <v>-0.05743008508830624</v>
+        <v>0.0561257453412447</v>
       </c>
       <c r="D98">
-        <v>-0.0198292603036736</v>
+        <v>0.04390072907177717</v>
       </c>
       <c r="E98">
-        <v>0.1379395511608267</v>
+        <v>0.05833697844143268</v>
       </c>
       <c r="F98">
-        <v>-0.1229645573641184</v>
+        <v>-0.008757900403140721</v>
       </c>
       <c r="G98">
-        <v>-0.3570121278104871</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07979904778871466</v>
+      </c>
+      <c r="H98">
+        <v>0.3411603525651002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.009609079505253885</v>
+        <v>0.01613754906697153</v>
       </c>
       <c r="C101">
-        <v>-0.01235377086324112</v>
+        <v>0.0004574068450363154</v>
       </c>
       <c r="D101">
-        <v>-0.02790582340807075</v>
+        <v>0.01554504446533107</v>
       </c>
       <c r="E101">
-        <v>-0.07577083179183412</v>
+        <v>-0.00415780165088933</v>
       </c>
       <c r="F101">
-        <v>-0.1703936485572198</v>
+        <v>-0.01853601143890942</v>
       </c>
       <c r="G101">
-        <v>0.05620042460054678</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1014629568072717</v>
+      </c>
+      <c r="H101">
+        <v>-0.02070973383836747</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1156826394038644</v>
+        <v>0.09845070633044227</v>
       </c>
       <c r="C102">
-        <v>-0.04598233405185288</v>
+        <v>0.03359918933179529</v>
       </c>
       <c r="D102">
-        <v>0.03096270725964822</v>
+        <v>0.08654870354640344</v>
       </c>
       <c r="E102">
-        <v>-0.06939770877674795</v>
+        <v>-0.002862455400817385</v>
       </c>
       <c r="F102">
-        <v>0.08414669757783969</v>
+        <v>-0.04688035339314832</v>
       </c>
       <c r="G102">
-        <v>-0.003167907809704362</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07354416038895784</v>
+      </c>
+      <c r="H102">
+        <v>-0.06495452070333257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04285691421593631</v>
+        <v>0.01467509113967249</v>
       </c>
       <c r="C103">
-        <v>-0.004045244104705796</v>
+        <v>0.006201841397627865</v>
       </c>
       <c r="D103">
-        <v>0.007823530155298002</v>
+        <v>0.01513293379550122</v>
       </c>
       <c r="E103">
-        <v>-0.05126416273971245</v>
+        <v>-0.01017505764451239</v>
       </c>
       <c r="F103">
-        <v>-0.004630647775261646</v>
+        <v>-0.007096482444151134</v>
       </c>
       <c r="G103">
-        <v>0.03544459869853057</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.0007205996020145849</v>
+      </c>
+      <c r="H103">
+        <v>-0.01098468632010431</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1780636829640661</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.956488293654348</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1557801271488325</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02824825761027412</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1300974318284743</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01249736911144973</v>
+      </c>
+      <c r="H104">
+        <v>-0.04903560349443498</v>
       </c>
     </row>
   </sheetData>
